--- a/output/Resultados/2.AsignacionTamMuestra15Paneles_NumeroAleaPareto/df_asignacionMuestra15paneles_Trimestre.xlsx
+++ b/output/Resultados/2.AsignacionTamMuestra15Paneles_NumeroAleaPareto/df_asignacionMuestra15paneles_Trimestre.xlsx
@@ -406,25 +406,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C2">
         <v>15</v>
       </c>
       <c r="D2">
-        <v>20.86666666666667</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>21</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -434,22 +434,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C3">
         <v>15</v>
       </c>
       <c r="D3">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -462,22 +462,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>7.066666666666666</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -490,25 +490,25 @@
         </is>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>2</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -518,25 +518,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
       <c r="D6">
-        <v>1.266666666666667</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>2</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -546,22 +546,22 @@
         </is>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>3.466666666666667</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -574,22 +574,22 @@
         </is>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8">
-        <v>5.133333333333334</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>15</v>
       </c>
       <c r="D9">
-        <v>3.266666666666667</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -630,25 +630,25 @@
         </is>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>15</v>
       </c>
       <c r="D10">
-        <v>2.866666666666667</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>3</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>15</v>
       </c>
       <c r="D11">
-        <v>5.933333333333334</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>6</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -686,22 +686,22 @@
         </is>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>15</v>
       </c>
       <c r="D12">
-        <v>4.066666666666666</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -714,25 +714,25 @@
         </is>
       </c>
       <c r="B13">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C13">
         <v>15</v>
       </c>
       <c r="D13">
-        <v>6.533333333333333</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>7</v>
-      </c>
-      <c r="G13">
-        <v>7</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -742,25 +742,25 @@
         </is>
       </c>
       <c r="B14">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14">
-        <v>7.933333333333334</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>8</v>
-      </c>
-      <c r="H14">
-        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -770,22 +770,22 @@
         </is>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
       <c r="D15">
-        <v>5.266666666666667</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -798,25 +798,25 @@
         </is>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16">
-        <v>5.866666666666666</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>6</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -826,25 +826,25 @@
         </is>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>5.933333333333334</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>6</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -854,25 +854,25 @@
         </is>
       </c>
       <c r="B18">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C18">
         <v>15</v>
       </c>
       <c r="D18">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>5</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -910,25 +910,25 @@
         </is>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20">
         <v>15</v>
       </c>
       <c r="D20">
-        <v>5.933333333333334</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>6</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -938,22 +938,22 @@
         </is>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C21">
         <v>15</v>
       </c>
       <c r="D21">
-        <v>5.466666666666667</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -966,25 +966,25 @@
         </is>
       </c>
       <c r="B22">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22">
         <v>15</v>
       </c>
       <c r="D22">
-        <v>8.933333333333334</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>9</v>
-      </c>
-      <c r="H22">
-        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -994,22 +994,22 @@
         </is>
       </c>
       <c r="B23">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C23">
         <v>15</v>
       </c>
       <c r="D23">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -1022,25 +1022,25 @@
         </is>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C24">
         <v>15</v>
       </c>
       <c r="D24">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>6</v>
-      </c>
-      <c r="H24">
-        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1050,25 +1050,25 @@
         </is>
       </c>
       <c r="B25">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>15</v>
       </c>
       <c r="D25">
-        <v>2.933333333333333</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>3</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1078,22 +1078,22 @@
         </is>
       </c>
       <c r="B26">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <v>15</v>
       </c>
       <c r="D26">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -1106,25 +1106,25 @@
         </is>
       </c>
       <c r="B27">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>15</v>
       </c>
       <c r="D27">
-        <v>3.733333333333333</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>4</v>
-      </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1134,25 +1134,25 @@
         </is>
       </c>
       <c r="B28">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>15</v>
       </c>
       <c r="D28">
-        <v>2.466666666666667</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>3</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="B29">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C29">
         <v>15</v>
       </c>
       <c r="D29">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -1190,25 +1190,25 @@
         </is>
       </c>
       <c r="B30">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>15</v>
       </c>
       <c r="D30">
-        <v>3.733333333333333</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F30">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>4</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1218,22 +1218,22 @@
         </is>
       </c>
       <c r="B31">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>15</v>
       </c>
       <c r="D31">
-        <v>3.133333333333333</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>3</v>
